--- a/MSO5000 LCR/backup/Clean.xlsx
+++ b/MSO5000 LCR/backup/Clean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonz\source\repos\MSO5000 LCR\MSO5000 LCR\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonz\source\repos\MSO5000-LCR-meter\MSO5000 LCR\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2F1A8C-15B4-4E4E-823E-63F734663204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F6C88-7854-430A-A3CC-2EF9CC6AEAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2800" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>F  [Hz]</t>
   </si>
   <si>
-    <t>I [mA]</t>
-  </si>
-  <si>
     <r>
       <t>Z (abs) [</t>
     </r>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>X [Ω]</t>
+  </si>
+  <si>
+    <t>I [A]</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.2512480738027979</v>
+        <v>2.5124807380279789E-4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>0.50202101681830102</v>
+        <v>5.0202101681830105E-4</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.75184817764144152</v>
+        <v>7.5184817764144154E-4</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1.0002677655055627</v>
+        <v>1.0002677655055628E-3</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1.2468310391348656</v>
+        <v>1.2468310391348656E-3</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1.4911062163765088</v>
+        <v>1.4911062163765088E-3</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>1.732682028419033</v>
+        <v>1.7326820284190329E-3</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>1.971170855562723</v>
+        <v>1.9711708555627231E-3</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>2.2062113964520109</v>
+        <v>2.206211396452011E-3</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -625,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>2.4374708385970858</v>
+        <v>2.4374708385970856E-3</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>4.491102074175144</v>
+        <v>4.4911020741751437E-3</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>6.0203306759153445</v>
+        <v>6.0203306759153445E-3</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>7.0897656983829247</v>
+        <v>7.0897656983829249E-3</v>
       </c>
       <c r="C14">
         <v>40</v>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>7.8247898582699866</v>
+        <v>7.8247898582699867E-3</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>8.3340218394238761</v>
+        <v>8.3340218394238764E-3</v>
       </c>
       <c r="C16">
         <v>60</v>
@@ -715,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>8.6937114773202406</v>
+        <v>8.6937114773202404E-3</v>
       </c>
       <c r="C17">
         <v>70</v>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>8.9537099005424352</v>
+        <v>8.9537099005424347E-3</v>
       </c>
       <c r="C18">
         <v>80</v>
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>9.1460658855750001</v>
+        <v>9.1460658855750006E-3</v>
       </c>
       <c r="C19">
         <v>90</v>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>9.2915203357813887</v>
+        <v>9.2915203357813881E-3</v>
       </c>
       <c r="C20">
         <v>100</v>
